--- a/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,79 +40,121 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>pool</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>crap</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>tried</t>
+    <t>missing</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>maybe</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>water</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>lasted</t>
@@ -121,198 +163,165 @@
     <t>interest</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>air</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>part</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>hold</t>
   </si>
   <si>
-    <t>within</t>
+    <t>working</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>never</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>still</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>like</t>
+    <t>set</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>got</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -322,31 +331,34 @@
     <t>awesome</t>
   </si>
   <si>
-    <t>blast</t>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>excellent</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>expansion</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>elf</t>
   </si>
   <si>
-    <t>expansion</t>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>helicopter</t>
+    <t>wonderful</t>
   </si>
   <si>
     <t>love</t>
@@ -355,58 +367,76 @@
     <t>loved</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>lego</t>
-  </si>
-  <si>
     <t>ages</t>
   </si>
   <si>
-    <t>family</t>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -767,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,10 +805,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -836,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9459459459459459</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -854,31 +884,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>19</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L3">
-        <v>21</v>
-      </c>
-      <c r="M3">
-        <v>21</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -886,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9223300970873787</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C4">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -904,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K4">
-        <v>0.6923076923076923</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -928,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -936,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9210526315789473</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -957,16 +987,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K5">
-        <v>0.65625</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -978,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -986,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9154929577464789</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1004,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K6">
-        <v>0.6103896103896104</v>
+        <v>0.546875</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1028,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1036,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8978494623655914</v>
+        <v>0.9174757281553398</v>
       </c>
       <c r="C7">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D7">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1054,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1078,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1086,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8913043478260869</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1104,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K8">
-        <v>0.5268817204301075</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1128,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1136,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8857142857142857</v>
+        <v>0.8763440860215054</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1154,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K9">
-        <v>0.5094339622641509</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1178,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1186,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8631578947368421</v>
+        <v>0.8526315789473684</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1204,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K10">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1228,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1236,13 +1266,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8225806451612904</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1254,31 +1284,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K11">
-        <v>0.4468085106382979</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1286,13 +1316,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7734375</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1304,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K12">
-        <v>0.4149377593360996</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="L12">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1328,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>282</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1336,13 +1366,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1354,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K13">
-        <v>0.4107142857142857</v>
+        <v>0.4149377593360996</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1378,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1386,13 +1416,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1404,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K14">
-        <v>0.3859397417503587</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L14">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1428,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>428</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1436,13 +1466,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7368421052631579</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1454,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K15">
-        <v>0.363914373088685</v>
+        <v>0.3663793103448276</v>
       </c>
       <c r="L15">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="M15">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1475,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>208</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1486,13 +1516,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7037037037037037</v>
+        <v>0.7578125</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1504,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16">
+        <v>0.345565749235474</v>
+      </c>
+      <c r="L16">
         <v>113</v>
       </c>
-      <c r="K16">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="L16">
-        <v>18</v>
-      </c>
       <c r="M16">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1528,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1536,13 +1566,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6984126984126984</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1554,31 +1584,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K17">
-        <v>0.3012048192771085</v>
+        <v>0.3119341563786008</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>384</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>116</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1586,13 +1616,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6885245901639344</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1604,31 +1634,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K18">
-        <v>0.3004926108374384</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L18">
-        <v>366</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>368</v>
+        <v>21</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>852</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1636,13 +1666,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6296296296296297</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1654,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K19">
-        <v>0.2898550724637681</v>
+        <v>0.3</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1686,13 +1716,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6222222222222222</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1704,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20">
-        <v>0.2727272727272727</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L20">
         <v>15</v>
@@ -1728,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1736,13 +1766,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6113744075829384</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C21">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1754,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K21">
-        <v>0.2428571428571429</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1778,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1786,13 +1816,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5818181818181818</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1804,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K22">
-        <v>0.2307692307692308</v>
+        <v>0.2395543175487465</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1828,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1836,38 +1866,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="L23">
         <v>36</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>36</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>27</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23">
-        <v>0.2284122562674095</v>
-      </c>
-      <c r="L23">
-        <v>82</v>
-      </c>
-      <c r="M23">
-        <v>82</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1878,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>277</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1886,13 +1916,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5542168674698795</v>
+        <v>0.6161137440758294</v>
       </c>
       <c r="C24">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="D24">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1904,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K24">
-        <v>0.1904761904761905</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1928,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>153</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1936,13 +1966,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.524390243902439</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1954,19 +1984,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K25">
-        <v>0.1681818181818182</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L25">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1975,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1281</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1986,13 +2016,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5178571428571429</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2004,31 +2034,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K26">
-        <v>0.1648351648351648</v>
+        <v>0.175</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2036,13 +2066,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5154639175257731</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2054,31 +2084,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K27">
-        <v>0.15</v>
+        <v>0.1664499349804942</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>102</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2086,13 +2116,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2104,31 +2134,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K28">
-        <v>0.1493506493506493</v>
+        <v>0.151009657594381</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>131</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2136,13 +2166,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2154,31 +2184,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K29">
-        <v>0.1319261213720317</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L29">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>987</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2186,13 +2216,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4927536231884058</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2204,31 +2234,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K30">
-        <v>0.08041958041958042</v>
+        <v>0.128</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N30">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>263</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2236,49 +2266,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4857142857142857</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>28</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31">
+        <v>0.1209677419354839</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
         <v>17</v>
       </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>18</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31">
-        <v>0.06149732620320856</v>
-      </c>
-      <c r="L31">
-        <v>46</v>
-      </c>
-      <c r="M31">
-        <v>50</v>
-      </c>
       <c r="N31">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="O31">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>702</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2286,13 +2316,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4851485148514851</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="C32">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2304,31 +2334,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K32">
-        <v>0.05919003115264797</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N32">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>302</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2336,13 +2366,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4814814814814815</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C33">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2354,31 +2384,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K33">
-        <v>0.05882352941176471</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>352</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2386,13 +2416,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4761904761904762</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2404,7 +2434,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>190</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L34">
+        <v>15</v>
+      </c>
+      <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2412,13 +2466,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.472463768115942</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C35">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2430,7 +2484,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>182</v>
+        <v>32</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K35">
+        <v>0.07228915662650602</v>
+      </c>
+      <c r="L35">
+        <v>18</v>
+      </c>
+      <c r="M35">
+        <v>18</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2438,13 +2516,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.462962962962963</v>
+        <v>0.4375</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2456,7 +2534,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36">
+        <v>0.07124681933842239</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <v>0.9</v>
+      </c>
+      <c r="O36">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2464,13 +2566,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4303797468354431</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C37">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2482,7 +2584,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>180</v>
+        <v>47</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37">
+        <v>0.0646900269541779</v>
+      </c>
+      <c r="L37">
+        <v>24</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+      <c r="N37">
+        <v>0.89</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2490,25 +2616,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3956043956043956</v>
+        <v>0.4317460317460318</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>55</v>
+        <v>179</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38">
+        <v>0.05900621118012422</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>21</v>
+      </c>
+      <c r="N38">
+        <v>0.9</v>
+      </c>
+      <c r="O38">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2516,13 +2666,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3947368421052632</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2534,7 +2684,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39">
+        <v>0.04704301075268817</v>
+      </c>
+      <c r="L39">
+        <v>35</v>
+      </c>
+      <c r="M39">
+        <v>43</v>
+      </c>
+      <c r="N39">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O39">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>709</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2542,13 +2716,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3793103448275862</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2560,7 +2734,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40">
+        <v>0.02697841726618705</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>0.62</v>
+      </c>
+      <c r="O40">
+        <v>0.38</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2568,13 +2766,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2586,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2594,13 +2792,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3648648648648649</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2612,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2620,13 +2818,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3571428571428572</v>
+        <v>0.375</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2638,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2646,13 +2844,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3361344537815126</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2664,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2672,13 +2870,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.328125</v>
+        <v>0.3648648648648649</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2690,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2698,13 +2896,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3243243243243243</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2716,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2724,13 +2922,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3035714285714285</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2742,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2750,13 +2948,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2923976608187134</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2768,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2776,13 +2974,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.29</v>
+        <v>0.2974683544303797</v>
       </c>
       <c r="C49">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D49">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2794,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>142</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2802,13 +3000,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.286231884057971</v>
+        <v>0.296875</v>
       </c>
       <c r="C50">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2820,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>197</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2828,13 +3026,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2857142857142857</v>
+        <v>0.2906976744186047</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2846,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2854,13 +3052,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2584269662921349</v>
+        <v>0.275</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2872,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2880,13 +3078,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.25</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2898,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2906,13 +3104,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2393162393162393</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2924,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2932,13 +3130,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2373417721518987</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C55">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2950,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>241</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2958,13 +3156,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2349726775956284</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="C56">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D56">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2976,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2984,13 +3182,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2209302325581395</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3002,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3010,13 +3208,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.217948717948718</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3028,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3036,13 +3234,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2047244094488189</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3054,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3062,13 +3260,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1982378854625551</v>
+        <v>0.234375</v>
       </c>
       <c r="C60">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D60">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3080,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>364</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3088,13 +3286,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1938775510204082</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="C61">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D61">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3106,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>158</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3114,13 +3312,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1923076923076923</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3132,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3140,13 +3338,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1910828025477707</v>
+        <v>0.2070484581497797</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3158,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>127</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3166,25 +3364,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1901931649331352</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="C64">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D64">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="E64">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>545</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3192,13 +3390,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1785714285714286</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3210,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3218,13 +3416,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1743119266055046</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3236,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3244,25 +3442,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1689189189189189</v>
+        <v>0.1901931649331352</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>123</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3270,13 +3468,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1657142857142857</v>
+        <v>0.1887755102040816</v>
       </c>
       <c r="C68">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D68">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3288,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3296,25 +3494,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1550632911392405</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C69">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D69">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>267</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3322,25 +3520,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1495327102803738</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>182</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3348,25 +3546,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1230769230769231</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3374,25 +3572,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1136712749615975</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="C72">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D72">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>577</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3400,25 +3598,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1073825503355705</v>
+        <v>0.136150234741784</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E73">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F73">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3426,25 +3624,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1052631578947368</v>
+        <v>0.1257668711656442</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D74">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E74">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F74">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>170</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3452,13 +3650,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1041666666666667</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C75">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3470,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3478,25 +3676,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09740259740259741</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>139</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3504,13 +3702,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09677419354838709</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="C77">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D77">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3522,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>224</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3530,25 +3728,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09340659340659341</v>
+        <v>0.1085450346420323</v>
       </c>
       <c r="C78">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D78">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E78">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F78">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>330</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3556,25 +3754,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09316770186335403</v>
+        <v>0.1003584229390681</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>146</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3582,25 +3780,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.09195402298850575</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C80">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E80">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3608,25 +3806,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.0903954802259887</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="C81">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>322</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3634,13 +3832,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.08970099667774087</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C82">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3652,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3660,25 +3858,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08664259927797834</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D83">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E83">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>253</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3686,25 +3884,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.08620689655172414</v>
+        <v>0.08498583569405099</v>
       </c>
       <c r="C84">
         <v>30</v>
       </c>
       <c r="D84">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3712,25 +3910,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.08215962441314555</v>
+        <v>0.08112582781456953</v>
       </c>
       <c r="C85">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D85">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E85">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="F85">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>391</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3738,25 +3936,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.08064516129032258</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="C86">
         <v>15</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3764,25 +3962,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.07888631090487239</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="C87">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D87">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>397</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3790,25 +3988,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06095551894563427</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="C88">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F88">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>570</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3816,25 +4014,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.05413105413105413</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C89">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>332</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3842,25 +4040,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.04487179487179487</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="C90">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E90">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="F90">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>447</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3868,25 +4066,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0432020330368488</v>
+        <v>0.06463878326996197</v>
       </c>
       <c r="C91">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D91">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E91">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F91">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>753</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3894,25 +4092,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.04195804195804196</v>
+        <v>0.0585480093676815</v>
       </c>
       <c r="C92">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3920,25 +4118,103 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.04183266932270916</v>
+        <v>0.05157593123209169</v>
       </c>
       <c r="C93">
+        <v>18</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>0.1</v>
+      </c>
+      <c r="F93">
+        <v>0.9</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.046</v>
+      </c>
+      <c r="C94">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>27</v>
+      </c>
+      <c r="E94">
+        <v>0.15</v>
+      </c>
+      <c r="F94">
+        <v>0.85</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.03816793893129771</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>38</v>
+      </c>
+      <c r="E95">
+        <v>0.21</v>
+      </c>
+      <c r="F95">
+        <v>0.79</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.03655913978494624</v>
+      </c>
+      <c r="C96">
+        <v>17</v>
+      </c>
+      <c r="D96">
         <v>21</v>
       </c>
-      <c r="D93">
-        <v>23</v>
-      </c>
-      <c r="E93">
-        <v>0.09</v>
-      </c>
-      <c r="F93">
-        <v>0.91</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>481</v>
+      <c r="E96">
+        <v>0.19</v>
+      </c>
+      <c r="F96">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
